--- a/PO_to_process/PO001.xlsx
+++ b/PO_to_process/PO001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag\Python_Codes\RPA_outlook_Python\Outlook Automation for Purchase Order Processing\PO_to_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE2FA53-AE38-48B0-8DC0-82C8C80DF871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C618D8-789A-409D-8B39-FA8B82F946CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10416" yWindow="3204" windowWidth="17280" windowHeight="9912" xr2:uid="{2FD9DD56-0EDE-4562-9A3F-620AEE409B44}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9912" xr2:uid="{2FD9DD56-0EDE-4562-9A3F-620AEE409B44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>john.doe@abc.com</t>
   </si>
   <si>
-    <t>CC1@abc.com,CC2@abc.com</t>
-  </si>
-  <si>
     <t>BCC1@xyz.com</t>
   </si>
   <si>
     <t>This is comment specific for your purchase</t>
+  </si>
+  <si>
+    <t>CC1@abc.com;CC2@abc.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,13 +427,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
